--- a/bank_statement_highlighted.xlsx
+++ b/bank_statement_highlighted.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G233"/>
+  <dimension ref="A1:G242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,119 +487,119 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2025/06/02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>AMEX 9301989175  MSP</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
-        <v>708.7</v>
+      <c r="A2" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/02</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD DMC 23615013     </t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="n">
+        <v>2349.27</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2025/06/02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="A3" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/02</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">VDEBIT 23615013     </t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>124.3</v>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="n">
+        <v>21766</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2025/06/02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD DMC 23615013     </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>303.97</v>
+      <c r="A4" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/02</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD MC  23615013     </t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="n">
+        <v>69336.21000000001</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2025/06/02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA23615435     </t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>383.45</v>
+      <c r="A5" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/02</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD VISA23615013     </t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="n">
+        <v>318045.75</v>
       </c>
     </row>
     <row r="6">
@@ -618,76 +618,76 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025/06/02</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>445.66</v>
-      </c>
+          <t xml:space="preserve">TORONTO TAX  R6H4K2 </t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>55743.32</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/02</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA23615435     </t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr"/>
-      <c r="G7" s="2" t="n">
-        <v>529.4</v>
-      </c>
+      <c r="A7" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025/07/02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FD33227080017    MSP</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/02</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr"/>
-      <c r="G8" s="2" t="n">
-        <v>761.03</v>
-      </c>
+      <c r="A8" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025/07/02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>VISA CB23615013  MSP</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>161.59</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -705,75 +705,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025/06/02</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD VISA23615013     </t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
-        <v>1009.38</v>
-      </c>
+          <t>TDMS STMT JUN    BUS</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1029.29</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/02</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD DMC 23615013     </t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr"/>
-      <c r="G10" s="2" t="n">
-        <v>1800.1</v>
-      </c>
+      <c r="A10" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025/07/02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>TDMS STMT JUN    BUS</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>10456.77</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/02</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VDEBIT 23615013     </t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr"/>
-      <c r="G11" s="2" t="n">
-        <v>20120.89</v>
+      <c r="A11" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025/07/02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CIPS CREDIT INTEREST</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>848.61</v>
       </c>
     </row>
     <row r="12">
@@ -792,17 +792,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2025/06/02</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD MC  23615013     </t>
+          <t xml:space="preserve">TD DMC 23615013     </t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="n">
-        <v>74348.67</v>
+        <v>73.45</v>
       </c>
     </row>
     <row r="13">
@@ -821,105 +821,105 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2025/06/02</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD VISA23615013     </t>
+          <t xml:space="preserve">VDEBIT 23615013     </t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr"/>
       <c r="G13" s="2" t="n">
-        <v>317430.99</v>
+        <v>940.27</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2025/06/02</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>TD MC  23615435 BPAD</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>253.69</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="A14" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/02</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD MC  23615013     </t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr"/>
+      <c r="G14" s="2" t="n">
+        <v>2528.94</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2025/06/02</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>AMEX 9301989175  MSP</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>22.99</v>
+      <c r="A15" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/02</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD VISA23615013     </t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr"/>
+      <c r="G15" s="2" t="n">
+        <v>4020.54</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2025/06/02</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA      L3H5Y5 </t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>519.04</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="A16" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/02</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD IDP 23615435     </t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr"/>
+      <c r="G16" s="2" t="n">
+        <v>5182.38</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -937,16 +937,16 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025/06/02</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FD33227080017    MSP</t>
+          <t>CHQ#14811-0147243266</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>275.95</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -966,47 +966,47 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025/06/02</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TDMS STMT MAY    BUS</t>
+          <t>CHQ#14822-1143701223</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>555.8099999999999</v>
+        <v>70000</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2025/06/02</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>TDMS STMT MAY    BUS</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10630.47</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="A19" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/02</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>TD VISA23615435 BPAD</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="G19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1024,162 +1024,162 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025/06/02</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CIPS CREDIT INTEREST</t>
+          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>740.0700000000001</v>
+        <v>244.05</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/02</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD DMC 23615013     </t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="n">
-        <v>37.29</v>
+      <c r="A21" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025/07/03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>100.25</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/02</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA23615435     </t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="n">
-        <v>324.89</v>
+      <c r="A22" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025/07/03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>1975.86</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/02</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD MC  23615435     </t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="n">
-        <v>468.95</v>
+      <c r="A23" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025/07/03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>1293</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/02</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD MC  23615013     </t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="n">
-        <v>1387.64</v>
+      <c r="A24" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025/07/03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>2969.96</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/02</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="n">
-        <v>1885.7</v>
+      <c r="A25" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2025/07/03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>73.45</v>
       </c>
     </row>
     <row r="26">
@@ -1198,17 +1198,17 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2025/06/02</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">VDEBIT 23615013     </t>
+          <t>AMEX 9301989175  MSP</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="n">
-        <v>1985.3</v>
+        <v>76077.97</v>
       </c>
     </row>
     <row r="27">
@@ -1227,46 +1227,46 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2025/06/02</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD VISA23615013     </t>
+          <t xml:space="preserve">TD VISA23615435     </t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="n">
-        <v>6538.17</v>
+        <v>457.76</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2025/06/03</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>AMEX 9301989175  MSP</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="n">
-        <v>75395.11</v>
+      <c r="A28" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/03</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD MC  23615435     </t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="n">
+        <v>538.73</v>
       </c>
     </row>
     <row r="29">
@@ -1285,17 +1285,17 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">VDEBIT 23615013     </t>
+          <t xml:space="preserve">TD IDP 23615435     </t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="n">
-        <v>384.2</v>
+        <v>831.67</v>
       </c>
     </row>
     <row r="30">
@@ -1314,17 +1314,17 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD MC  23615435     </t>
+          <t xml:space="preserve">TD MC  23615013     </t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="n">
-        <v>567.75</v>
+        <v>913.61</v>
       </c>
     </row>
     <row r="31">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="n">
-        <v>702.86</v>
+        <v>2099.79</v>
       </c>
     </row>
     <row r="32">
@@ -1372,47 +1372,47 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD MC  23615013     </t>
+          <t xml:space="preserve">VDEBIT 23615013     </t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="n">
-        <v>1972.42</v>
+        <v>2705.3</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/03</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="n">
-        <v>2379.43</v>
-      </c>
+      <c r="A33" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2025/07/03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>CHQ#14807-3143847887</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>405.44</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1430,16 +1430,16 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CHQ#14769-2141717221</t>
+          <t>CHQ#14797-4143709413</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>331.06</v>
+        <v>42.22</v>
       </c>
       <c r="G34" t="inlineStr"/>
     </row>
@@ -1459,16 +1459,16 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CHQ#14777-3142235867</t>
+          <t xml:space="preserve">TOR HYD ELEC J3U9Q4 </t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>85.44</v>
+        <v>6280.24</v>
       </c>
       <c r="G35" t="inlineStr"/>
     </row>
@@ -1488,18 +1488,18 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>TD VISA23615435 BPAD</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="n">
-        <v>213.59</v>
-      </c>
-      <c r="G36" s="2" t="inlineStr"/>
+          <t>AMEX 9301989175  MSP</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="n">
+        <v>481.79</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1517,76 +1517,76 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025/06/04</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>AMEX 9301989175  MSP</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="n">
-        <v>1145.67</v>
-      </c>
+          <t xml:space="preserve">BELL1 BILL14 J3W8K9 </t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/04</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA23615435     </t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="n">
-        <v>259.9</v>
-      </c>
+      <c r="A38" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2025/07/04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENBRIDGE GAS J3W8R6 </t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>451.01</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/04</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VDEBIT 23615013     </t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="n">
-        <v>263.26</v>
-      </c>
+      <c r="A39" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2025/07/04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENBRIDGE GAS J3W9H8 </t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>113.25</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>2025/06/04</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD MC  23615435     </t>
+          <t xml:space="preserve">TD VISA23615435     </t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="n">
-        <v>952.59</v>
+        <v>51.97</v>
       </c>
     </row>
     <row r="41">
@@ -1633,250 +1633,250 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>2025/06/04</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
+          <t xml:space="preserve">VDEBIT 23615013     </t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="n">
-        <v>1109.64</v>
+        <v>565</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2025/06/04</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>CHQ#14772-2142261307</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>33.69</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="A42" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/04</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD VISA23615013     </t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="n">
+        <v>1660.21</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2025/06/04</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>CHQ#14773-2142261328</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>31.93</v>
-      </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="A43" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/04</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD MC  23615013     </t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="n">
+        <v>2953.52</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/04</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>TD VISA23615013 BPAD</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="n">
-        <v>38.35</v>
-      </c>
-      <c r="G44" s="2" t="inlineStr"/>
+      <c r="A44" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2025/07/07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>AMEX 9301989175  MSP</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>587.9299999999999</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2025/06/05</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
+      <c r="A45" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/07</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
         <is>
           <t>AMEX 9301989175  MSP</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="n">
-        <v>360.24</v>
+      <c r="F45" s="2" t="inlineStr"/>
+      <c r="G45" s="2" t="n">
+        <v>874.38</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2025/06/05</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA      Q3X8L8 </t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>449.35</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="A46" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/07</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD IDP 23615435     </t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="n">
+        <v>103.3</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>2025/06/05</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA      Q3X8Q4 </t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>1114.43</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="A47" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/07</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD MC  23615435     </t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="n">
+        <v>177.41</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2025/06/05</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA      Q3X8Q9 </t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>500.15</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="A48" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/07</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VDEBIT 23615013     </t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="n">
+        <v>193.34</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2025/06/05</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TOR HYD ELEC Q3Y2H8 </t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>5898.7</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="A49" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/07</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD DMC 23615013     </t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="n">
+        <v>337.87</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1894,17 +1894,17 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>2025/06/05</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD MC  23615435     </t>
+          <t xml:space="preserve">TD MC  23615013     </t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="n">
-        <v>496.06</v>
+        <v>447.47</v>
       </c>
     </row>
     <row r="51">
@@ -1923,192 +1923,192 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>2025/06/05</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
+          <t xml:space="preserve">TD MC  23615435     </t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="n">
-        <v>558.54</v>
+        <v>496.33</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2025/06/05</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA23615435     </t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="n">
-        <v>1018.79</v>
+      <c r="A52" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/07</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD VISA23615013     </t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr"/>
+      <c r="G52" s="2" t="n">
+        <v>768.4</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>2025/06/05</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>TD VISA23615013 BPAD</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>68.66</v>
-      </c>
-      <c r="G53" t="inlineStr"/>
+      <c r="A53" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/07</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VDEBIT 23615013     </t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="n">
+        <v>1504.6</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2025/06/06</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="n">
-        <v>450</v>
+      <c r="A54" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/07</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD MC  23615013     </t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="n">
+        <v>1625.62</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2025/06/06</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="n">
-        <v>1410.2</v>
+      <c r="A55" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/07</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD VISA23615013     </t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="n">
+        <v>2273.56</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>2025/06/06</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="n">
-        <v>1535.25</v>
-      </c>
+      <c r="A56" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/07</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>TD VISA23615435 BPAD</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>180.07</v>
+      </c>
+      <c r="G56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2025/06/06</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="n">
-        <v>315</v>
-      </c>
+      <c r="A57" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/07</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>TD VISA23615435 BPAD</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>213.22</v>
+      </c>
+      <c r="G57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2126,17 +2126,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
+          <t>AMEX 9301989175  MSP</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="n">
-        <v>346</v>
+        <v>840.6</v>
       </c>
     </row>
     <row r="59">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="n">
-        <v>72.75</v>
+        <v>200.75</v>
       </c>
     </row>
     <row r="60">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
-        <v>1240.74</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
-        <v>472.25</v>
+        <v>700.6</v>
       </c>
     </row>
     <row r="62">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
-        <v>2969.96</v>
+        <v>430.85</v>
       </c>
     </row>
     <row r="63">
@@ -2271,162 +2271,162 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>AMEX 9301989175  MSP</t>
+          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="n">
-        <v>1265.61</v>
+        <v>232.8</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/06</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD MC  23615013     </t>
-        </is>
-      </c>
-      <c r="F64" s="2" t="inlineStr"/>
-      <c r="G64" s="2" t="n">
-        <v>254.25</v>
+      <c r="A64" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2025/07/07</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>310</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/06</t>
-        </is>
-      </c>
-      <c r="E65" s="2" t="inlineStr">
+      <c r="A65" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2025/07/07</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2025/07/07</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2025/07/07</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/07</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">TD MC  23615435     </t>
         </is>
       </c>
-      <c r="F65" s="2" t="inlineStr"/>
-      <c r="G65" s="2" t="n">
-        <v>1705.17</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/06</t>
-        </is>
-      </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr"/>
-      <c r="G66" s="2" t="n">
-        <v>2129.04</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C67" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/06</t>
-        </is>
-      </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA23615435     </t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="inlineStr"/>
-      <c r="G67" s="2" t="n">
-        <v>3815.22</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>2025/06/09</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>AMEX 9301989175  MSP</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="n">
-        <v>721.59</v>
+      <c r="F68" s="2" t="inlineStr"/>
+      <c r="G68" s="2" t="n">
+        <v>355.95</v>
       </c>
     </row>
     <row r="69">
@@ -2445,17 +2445,17 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
+          <t xml:space="preserve">TD VISA23615435     </t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="n">
-        <v>233.9</v>
+        <v>609.05</v>
       </c>
     </row>
     <row r="70">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="n">
-        <v>1035.3</v>
+        <v>872.36</v>
       </c>
     </row>
     <row r="71">
@@ -2503,17 +2503,17 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD MC  23615435     </t>
+          <t xml:space="preserve">VDEBIT 23615013     </t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="n">
-        <v>1059.96</v>
+        <v>2039.65</v>
       </c>
     </row>
     <row r="72">
@@ -2532,17 +2532,17 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD VISA23615435     </t>
+          <t xml:space="preserve">TD MC  23615013     </t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="n">
-        <v>1497.49</v>
+        <v>2766.47</v>
       </c>
     </row>
     <row r="73">
@@ -2561,47 +2561,47 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD MC  23615435     </t>
+          <t xml:space="preserve">TD VISA23615013     </t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="n">
-        <v>1681.44</v>
+        <v>9959.200000000001</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B74" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C74" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/09</t>
-        </is>
-      </c>
-      <c r="E74" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA23615435     </t>
-        </is>
-      </c>
-      <c r="F74" s="2" t="inlineStr"/>
-      <c r="G74" s="2" t="n">
-        <v>2534.24</v>
-      </c>
+      <c r="A74" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2025/07/07</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>CHQ#14808-1140160449</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>208</v>
+      </c>
+      <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2633,32 +2633,32 @@
       <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>2025/06/09</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
+      <c r="A76" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/08</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
         <is>
           <t>AMEX 9301989175  MSP</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="n">
-        <v>75.72</v>
+      <c r="F76" s="2" t="inlineStr"/>
+      <c r="G76" s="2" t="n">
+        <v>22.99</v>
       </c>
     </row>
     <row r="77">
@@ -2677,16 +2677,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>PRFD-TPLDI11041-0185</t>
+          <t xml:space="preserve">AMEX CARDS   K4J4R2 </t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>9909.879999999999</v>
+        <v>1923.83</v>
       </c>
       <c r="G77" t="inlineStr"/>
     </row>
@@ -2706,17 +2706,17 @@
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">VDEBIT 23615013     </t>
+          <t xml:space="preserve">TD VISA23615435     </t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="n">
-        <v>207.1</v>
+        <v>47.43</v>
       </c>
     </row>
     <row r="79">
@@ -2735,17 +2735,17 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD DMC 23615013     </t>
+          <t xml:space="preserve">TD MC  23615435     </t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="n">
-        <v>366.12</v>
+        <v>92.48999999999999</v>
       </c>
     </row>
     <row r="80">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="n">
-        <v>555.11</v>
+        <v>161.25</v>
       </c>
     </row>
     <row r="81">
@@ -2793,17 +2793,17 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD MC  23615435     </t>
+          <t xml:space="preserve">TD DMC 23615013     </t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="n">
-        <v>914.46</v>
+        <v>169.16</v>
       </c>
     </row>
     <row r="82">
@@ -2822,76 +2822,76 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD VISA23615435     </t>
+          <t xml:space="preserve">VDEBIT 23615013     </t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="n">
-        <v>2271.82</v>
+        <v>469.09</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>2025/06/09</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>CHQ#14770-1140006534</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>279.4</v>
-      </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="A83" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/08</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD MC  23615013     </t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr"/>
+      <c r="G83" s="2" t="n">
+        <v>1693.24</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>2025/06/09</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>CHQ#14765-1144959162</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>335.61</v>
-      </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="A84" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/08</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD VISA23615013     </t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr"/>
+      <c r="G84" s="2" t="n">
+        <v>4954.34</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2909,16 +2909,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>CHQ#14764-2144027653</t>
+          <t>CHQ#14823-1141219575</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>157.18</v>
+        <v>1038.46</v>
       </c>
       <c r="G85" t="inlineStr"/>
     </row>
@@ -2938,105 +2938,105 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>CHQ#14775-2144203831</t>
+          <t>CHQ#14814-1141219713</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>245.32</v>
+        <v>267.82</v>
       </c>
       <c r="G86" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>2025/06/09</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>CHQ#14768-3144977684</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>612.02</v>
-      </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="A87" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/09</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>AMEX 9301989175  MSP</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr"/>
+      <c r="G87" s="2" t="n">
+        <v>1044.42</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>2025/06/10</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="n">
-        <v>714.75</v>
+      <c r="A88" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/09</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD VISA23615435     </t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr"/>
+      <c r="G88" s="2" t="n">
+        <v>584.21</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>2025/06/10</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BELL1 BILL14 R7W3Z9 </t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>145.42</v>
-      </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="A89" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/09</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VDEBIT 23615013     </t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr"/>
+      <c r="G89" s="2" t="n">
+        <v>1672.3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/07/09</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
+          <t xml:space="preserve">TD VISA23615013     </t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr"/>
       <c r="G90" s="2" t="n">
-        <v>215.01</v>
+        <v>1980.54</v>
       </c>
     </row>
     <row r="91">
@@ -3083,17 +3083,17 @@
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD MC  23615435     </t>
+          <t>AMEX 9301989175  MSP</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="n">
-        <v>346.12</v>
+        <v>933.52</v>
       </c>
     </row>
     <row r="92">
@@ -3112,17 +3112,17 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">VDEBIT 23615013     </t>
+          <t xml:space="preserve">TD MC  23615435     </t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="n">
-        <v>505.25</v>
+        <v>57.89</v>
       </c>
     </row>
     <row r="93">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="n">
-        <v>583.9299999999999</v>
+        <v>135.6</v>
       </c>
     </row>
     <row r="94">
@@ -3170,17 +3170,17 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD MC  23615013     </t>
+          <t xml:space="preserve">VDEBIT 23615013     </t>
         </is>
       </c>
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="n">
-        <v>2152.44</v>
+        <v>371.91</v>
       </c>
     </row>
     <row r="95">
@@ -3199,105 +3199,105 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD VISA23615013     </t>
+          <t xml:space="preserve">TD MC  23615013     </t>
         </is>
       </c>
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="n">
-        <v>8481.709999999999</v>
+        <v>845.8</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>2025/06/11</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA23615435     </t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="n">
-        <v>13.24</v>
+      <c r="A96" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/10</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD IDP 23615435     </t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr"/>
+      <c r="G96" s="2" t="n">
+        <v>1721.55</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B97" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C97" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D97" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/11</t>
-        </is>
-      </c>
-      <c r="E97" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
-        </is>
-      </c>
-      <c r="F97" s="2" t="inlineStr"/>
-      <c r="G97" s="2" t="n">
-        <v>23.72</v>
-      </c>
+      <c r="A97" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2025/07/10</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>CHQ#14813-0142063361</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>260.95</v>
+      </c>
+      <c r="G97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B98" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C98" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D98" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/11</t>
-        </is>
-      </c>
-      <c r="E98" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD DMC 23615013     </t>
-        </is>
-      </c>
-      <c r="F98" s="2" t="inlineStr"/>
-      <c r="G98" s="2" t="n">
-        <v>91.36</v>
-      </c>
+      <c r="A98" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2025/07/10</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>CHQ#14809-0142063439</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>119.33</v>
+      </c>
+      <c r="G98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -3315,46 +3315,46 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>2025/06/11</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD MC  23615435     </t>
+          <t xml:space="preserve">VDEBIT 23615013     </t>
         </is>
       </c>
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="n">
-        <v>263.6</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B100" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C100" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D100" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/11</t>
-        </is>
-      </c>
-      <c r="E100" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD MC  23615013     </t>
-        </is>
-      </c>
-      <c r="F100" s="2" t="inlineStr"/>
-      <c r="G100" s="2" t="n">
-        <v>332.84</v>
+      <c r="A100" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2025/07/11</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD VISA23615435     </t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>261.34</v>
       </c>
     </row>
     <row r="101">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2025/06/11</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3383,66 +3383,66 @@
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="n">
-        <v>1642.25</v>
+        <v>495.76</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>2025/06/12</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>AMEX 9301989175  MSP</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="n">
-        <v>1714.9</v>
+      <c r="A102" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/11</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD IDP 23615435     </t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr"/>
+      <c r="G102" s="2" t="n">
+        <v>900.91</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B103" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C103" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D103" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/12</t>
-        </is>
-      </c>
-      <c r="E103" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA23615013     </t>
-        </is>
-      </c>
-      <c r="F103" s="2" t="inlineStr"/>
-      <c r="G103" s="2" t="n">
-        <v>92.48999999999999</v>
-      </c>
+      <c r="A103" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2025/07/11</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>CHQ#14815-4142210112</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>104.75</v>
+      </c>
+      <c r="G103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -3460,46 +3460,46 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">VDEBIT 23615013     </t>
-        </is>
-      </c>
-      <c r="F104" s="2" t="inlineStr"/>
-      <c r="G104" s="2" t="n">
-        <v>407.11</v>
-      </c>
+          <t>TD MC  23615013 BPAD</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="G104" s="2" t="inlineStr"/>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B105" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C105" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D105" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/12</t>
-        </is>
-      </c>
-      <c r="E105" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD MC  23615013     </t>
-        </is>
-      </c>
-      <c r="F105" s="2" t="inlineStr"/>
-      <c r="G105" s="2" t="n">
-        <v>433.1</v>
+      <c r="A105" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2025/07/14</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="n">
+        <v>550</v>
       </c>
     </row>
     <row r="106">
@@ -3518,17 +3518,17 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
+          <t xml:space="preserve">TD MC  23615435     </t>
         </is>
       </c>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="n">
-        <v>630.33</v>
+        <v>96.01000000000001</v>
       </c>
     </row>
     <row r="107">
@@ -3547,17 +3547,17 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD MC  23615435     </t>
+          <t xml:space="preserve">TD VISA23615013     </t>
         </is>
       </c>
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="2" t="n">
-        <v>2599</v>
+        <v>299.76</v>
       </c>
     </row>
     <row r="108">
@@ -3576,17 +3576,17 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD VISA23615435     </t>
+          <t xml:space="preserve">TD MC  23615435     </t>
         </is>
       </c>
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="n">
-        <v>51.91</v>
+        <v>314.93</v>
       </c>
     </row>
     <row r="109">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="n">
-        <v>286.2</v>
+        <v>553.77</v>
       </c>
     </row>
     <row r="110">
@@ -3634,17 +3634,17 @@
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD VISA23615013     </t>
+          <t xml:space="preserve">TD VISA23615435     </t>
         </is>
       </c>
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="n">
-        <v>411.26</v>
+        <v>1067.23</v>
       </c>
     </row>
     <row r="111">
@@ -3663,76 +3663,76 @@
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">VDEBIT 23615013     </t>
+          <t xml:space="preserve">TD VISA23615013     </t>
         </is>
       </c>
       <c r="F111" s="2" t="inlineStr"/>
       <c r="G111" s="2" t="n">
-        <v>599.04</v>
+        <v>1764.07</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B112" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C112" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D112" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/13</t>
-        </is>
-      </c>
-      <c r="E112" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD MC  23615013     </t>
-        </is>
-      </c>
-      <c r="F112" s="2" t="inlineStr"/>
-      <c r="G112" s="2" t="n">
-        <v>952.08</v>
-      </c>
+      <c r="A112" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2025/07/14</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOR UTILITY  Q2U7Q5 </t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>1983.05</v>
+      </c>
+      <c r="G112" t="inlineStr"/>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B113" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C113" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D113" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/16</t>
-        </is>
-      </c>
-      <c r="E113" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA23615435     </t>
-        </is>
-      </c>
-      <c r="F113" s="2" t="inlineStr"/>
-      <c r="G113" s="2" t="n">
-        <v>90</v>
-      </c>
+      <c r="A113" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2025/07/14</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PITNEYWORKS  Q2U7R2 </t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>568.65</v>
+      </c>
+      <c r="G113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="F114" s="2" t="inlineStr"/>
       <c r="G114" s="2" t="n">
-        <v>102.83</v>
+        <v>1147.62</v>
       </c>
     </row>
     <row r="115">
@@ -3779,17 +3779,17 @@
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD MC  23615013     </t>
+          <t xml:space="preserve">TD VISA23615435     </t>
         </is>
       </c>
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="n">
-        <v>254.56</v>
+        <v>1148.56</v>
       </c>
     </row>
     <row r="116">
@@ -3808,17 +3808,17 @@
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD MC  23615435     </t>
+          <t xml:space="preserve">VDEBIT 23615013     </t>
         </is>
       </c>
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="n">
-        <v>254.56</v>
+        <v>1258.62</v>
       </c>
     </row>
     <row r="117">
@@ -3837,76 +3837,76 @@
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
+          <t xml:space="preserve">TD MC  23615435     </t>
         </is>
       </c>
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="n">
-        <v>1000</v>
+        <v>1608.17</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B118" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C118" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D118" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/16</t>
-        </is>
-      </c>
-      <c r="E118" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD MC  23615013     </t>
-        </is>
-      </c>
-      <c r="F118" s="2" t="inlineStr"/>
-      <c r="G118" s="2" t="n">
-        <v>1032</v>
+      <c r="A118" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2025/07/15</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GC 1672-DEPOSIT     </t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="n">
+        <v>117918.56</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B119" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C119" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D119" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/16</t>
-        </is>
-      </c>
-      <c r="E119" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VDEBIT 23615013     </t>
-        </is>
-      </c>
-      <c r="F119" s="2" t="inlineStr"/>
-      <c r="G119" s="2" t="n">
-        <v>1410.86</v>
-      </c>
+      <c r="A119" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2025/07/15</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>PRFD-TPLDI11041-0188</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>7656.95</v>
+      </c>
+      <c r="G119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -3924,17 +3924,17 @@
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD VISA23615013     </t>
+          <t xml:space="preserve">TD VISA23615435     </t>
         </is>
       </c>
       <c r="F120" s="2" t="inlineStr"/>
       <c r="G120" s="2" t="n">
-        <v>1745.32</v>
+        <v>33.84</v>
       </c>
     </row>
     <row r="121">
@@ -3953,105 +3953,105 @@
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
+          <t xml:space="preserve">VDEBIT 23615013     </t>
         </is>
       </c>
       <c r="F121" s="2" t="inlineStr"/>
       <c r="G121" s="2" t="n">
-        <v>2518.57</v>
+        <v>102.83</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>2025/06/16</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>AMEX 9301989175  MSP</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="n">
-        <v>1085.02</v>
+      <c r="A122" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/15</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD MC  23615435     </t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr"/>
+      <c r="G122" s="2" t="n">
+        <v>129.36</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>2025/06/16</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA      W5Z4Y7 </t>
-        </is>
-      </c>
-      <c r="F123" t="n">
-        <v>1667.58</v>
-      </c>
-      <c r="G123" t="inlineStr"/>
+      <c r="A123" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/15</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD IDP 23615435     </t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr"/>
+      <c r="G123" s="2" t="n">
+        <v>190.09</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>2025/06/16</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t xml:space="preserve">AMEX CARDS   W5Z4Z9 </t>
-        </is>
-      </c>
-      <c r="F124" t="n">
-        <v>1023.4</v>
-      </c>
-      <c r="G124" t="inlineStr"/>
+      <c r="A124" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/15</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD MC  23615013     </t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr"/>
+      <c r="G124" s="2" t="n">
+        <v>537.0599999999999</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -4069,133 +4069,133 @@
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD MC  23615435     </t>
+          <t xml:space="preserve">TD VISA23615013     </t>
         </is>
       </c>
       <c r="F125" s="2" t="inlineStr"/>
       <c r="G125" s="2" t="n">
-        <v>232.12</v>
+        <v>2238.19</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B126" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C126" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D126" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/16</t>
-        </is>
-      </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD MC  23615013     </t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr"/>
-      <c r="G126" s="2" t="n">
-        <v>276.03</v>
-      </c>
+      <c r="A126" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2025/07/15</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>CHQ#14824-4144053582</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>27047.46</v>
+      </c>
+      <c r="G126" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B127" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C127" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D127" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/16</t>
-        </is>
-      </c>
-      <c r="E127" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA23615013     </t>
-        </is>
-      </c>
-      <c r="F127" s="2" t="inlineStr"/>
-      <c r="G127" s="2" t="n">
-        <v>1377.08</v>
-      </c>
+      <c r="A127" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2025/07/15</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>CHQ#14825-4144053585</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>35369</v>
+      </c>
+      <c r="G127" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B128" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C128" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D128" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/16</t>
-        </is>
-      </c>
-      <c r="E128" s="2" t="inlineStr">
-        <is>
-          <t>TD VISA23615435 BPAD</t>
-        </is>
-      </c>
-      <c r="F128" s="2" t="n">
-        <v>117.84</v>
-      </c>
-      <c r="G128" s="2" t="inlineStr"/>
+      <c r="A128" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2025/07/15</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>CHQ#14826-4144053609</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>110000</v>
+      </c>
+      <c r="G128" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>2025/06/17</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="n">
-        <v>500</v>
+      <c r="A129" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/16</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VDEBIT 23615013     </t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr"/>
+      <c r="G129" s="2" t="n">
+        <v>116.92</v>
       </c>
     </row>
     <row r="130">
@@ -4214,46 +4214,46 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/07/16</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
+          <t xml:space="preserve">TD VISA23615013     </t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="n">
-        <v>293.25</v>
+        <v>211.87</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>2025/06/17</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="n">
-        <v>60</v>
+      <c r="A131" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/16</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD MC  23615435     </t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr"/>
+      <c r="G131" s="2" t="n">
+        <v>290.08</v>
       </c>
     </row>
     <row r="132">
@@ -4272,18 +4272,18 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/07/16</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="n">
-        <v>84.59999999999999</v>
-      </c>
+          <t>CHQ#14804-2143515718</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>424.69</v>
+      </c>
+      <c r="G132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -4301,46 +4301,46 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>PRFD-TPLDI11041-0186</t>
-        </is>
-      </c>
-      <c r="F133" t="n">
-        <v>16453.43</v>
-      </c>
-      <c r="G133" t="inlineStr"/>
+          <t xml:space="preserve">TD VISA23615435     </t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="n">
+        <v>30.93</v>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B134" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C134" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D134" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/17</t>
-        </is>
-      </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr"/>
-      <c r="G134" s="2" t="n">
-        <v>169.28</v>
+      <c r="A134" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2025/07/17</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD VISA23615013     </t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="n">
+        <v>534.77</v>
       </c>
     </row>
     <row r="135">
@@ -4359,17 +4359,17 @@
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD MC  23615013     </t>
+          <t xml:space="preserve">VDEBIT 23615013     </t>
         </is>
       </c>
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="n">
-        <v>206.03</v>
+        <v>808.09</v>
       </c>
     </row>
     <row r="136">
@@ -4388,17 +4388,17 @@
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD VISA23615013     </t>
+          <t xml:space="preserve">TD MC  23615013     </t>
         </is>
       </c>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="n">
-        <v>1436.85</v>
+        <v>1724.69</v>
       </c>
     </row>
     <row r="137">
@@ -4417,75 +4417,75 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>CHQ#14800-2142235285</t>
+          <t>CHQ#14812-3144184907</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>44861</v>
+        <v>279.34</v>
       </c>
       <c r="G137" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>2025/06/17</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>CHQ#14799-2142235288</t>
-        </is>
-      </c>
-      <c r="F138" t="n">
-        <v>10735</v>
-      </c>
-      <c r="G138" t="inlineStr"/>
+      <c r="A138" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/18</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD VISA23615013     </t>
+        </is>
+      </c>
+      <c r="F138" s="2" t="inlineStr"/>
+      <c r="G138" s="2" t="n">
+        <v>7.22</v>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>2025/06/18</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>AMEX 9301989175  MSP</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="n">
-        <v>497.12</v>
+      <c r="A139" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/18</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VDEBIT 23615013     </t>
+        </is>
+      </c>
+      <c r="F139" s="2" t="inlineStr"/>
+      <c r="G139" s="2" t="n">
+        <v>203.22</v>
       </c>
     </row>
     <row r="140">
@@ -4504,17 +4504,17 @@
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD MC  23615435     </t>
+          <t xml:space="preserve">TD IDP 23615435     </t>
         </is>
       </c>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="n">
-        <v>135.23</v>
+        <v>286.2</v>
       </c>
     </row>
     <row r="141">
@@ -4533,17 +4533,17 @@
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD MC  23615013     </t>
+          <t xml:space="preserve">TD VISA23615435     </t>
         </is>
       </c>
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="n">
-        <v>224.74</v>
+        <v>333.35</v>
       </c>
     </row>
     <row r="142">
@@ -4562,17 +4562,17 @@
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">VDEBIT 23615013     </t>
+          <t xml:space="preserve">TD DMC 23615013     </t>
         </is>
       </c>
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="n">
-        <v>315.58</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="143">
@@ -4591,18 +4591,18 @@
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr"/>
-      <c r="G143" s="2" t="n">
-        <v>424.99</v>
-      </c>
+          <t>TD MC  23615435 BPAD</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="n">
+        <v>63.02</v>
+      </c>
+      <c r="G143" s="2" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -4620,17 +4620,17 @@
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD VISA23615013     </t>
+          <t xml:space="preserve">TD MC  23615435     </t>
         </is>
       </c>
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="n">
-        <v>2193.5</v>
+        <v>29.34</v>
       </c>
     </row>
     <row r="145">
@@ -4649,75 +4649,75 @@
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr">
         <is>
-          <t>TD VISA23615435 BPAD</t>
-        </is>
-      </c>
-      <c r="F145" s="2" t="n">
-        <v>282.05</v>
-      </c>
-      <c r="G145" s="2" t="inlineStr"/>
+          <t xml:space="preserve">TD VISA23615013     </t>
+        </is>
+      </c>
+      <c r="F145" s="2" t="inlineStr"/>
+      <c r="G145" s="2" t="n">
+        <v>51.97</v>
+      </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>2025/06/19</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ORIGINATION FEE     </t>
-        </is>
-      </c>
-      <c r="F146" t="n">
-        <v>66900</v>
-      </c>
-      <c r="G146" t="inlineStr"/>
+      <c r="A146" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/21</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VDEBIT 23615013     </t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr"/>
+      <c r="G146" s="2" t="n">
+        <v>87.8</v>
+      </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>2025/06/19</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>AMEX 9301989175  MSP</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="n">
-        <v>139.85</v>
+      <c r="A147" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/21</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD MC  23615013     </t>
+        </is>
+      </c>
+      <c r="F147" s="2" t="inlineStr"/>
+      <c r="G147" s="2" t="n">
+        <v>569</v>
       </c>
     </row>
     <row r="148">
@@ -4736,17 +4736,17 @@
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD MC  23615013     </t>
+          <t xml:space="preserve">TD VISA23615013     </t>
         </is>
       </c>
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="n">
-        <v>385.47</v>
+        <v>1240.88</v>
       </c>
     </row>
     <row r="149">
@@ -4765,18 +4765,18 @@
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD VISA23615435     </t>
-        </is>
-      </c>
-      <c r="F149" s="2" t="inlineStr"/>
-      <c r="G149" s="2" t="n">
-        <v>440.04</v>
-      </c>
+          <t>TD VISA23615435 BPAD</t>
+        </is>
+      </c>
+      <c r="F149" s="2" t="n">
+        <v>119.67</v>
+      </c>
+      <c r="G149" s="2" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -4794,18 +4794,18 @@
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD DMC 23615013     </t>
-        </is>
-      </c>
-      <c r="F150" s="2" t="inlineStr"/>
-      <c r="G150" s="2" t="n">
-        <v>443.1</v>
-      </c>
+          <t>TD VISA23615435 BPAD</t>
+        </is>
+      </c>
+      <c r="F150" s="2" t="n">
+        <v>124.09</v>
+      </c>
+      <c r="G150" s="2" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -4823,76 +4823,76 @@
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">VDEBIT 23615013     </t>
-        </is>
-      </c>
-      <c r="F151" s="2" t="inlineStr"/>
-      <c r="G151" s="2" t="n">
-        <v>626.8099999999999</v>
-      </c>
+          <t>TD MC  23615435 BPAD</t>
+        </is>
+      </c>
+      <c r="F151" s="2" t="n">
+        <v>175.62</v>
+      </c>
+      <c r="G151" s="2" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B152" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C152" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D152" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/19</t>
-        </is>
-      </c>
-      <c r="E152" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA23615013     </t>
-        </is>
-      </c>
-      <c r="F152" s="2" t="inlineStr"/>
-      <c r="G152" s="2" t="n">
-        <v>985.87</v>
-      </c>
+      <c r="A152" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2025/07/21</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maintenance Charge  </t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>150</v>
+      </c>
+      <c r="G152" t="inlineStr"/>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B153" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C153" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D153" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/19</t>
-        </is>
-      </c>
-      <c r="E153" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
-        </is>
-      </c>
-      <c r="F153" s="2" t="inlineStr"/>
-      <c r="G153" s="2" t="n">
-        <v>3031.25</v>
-      </c>
+      <c r="A153" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2025/07/21</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EFT Billing         </t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>28</v>
+      </c>
+      <c r="G153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -4910,18 +4910,18 @@
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr">
         <is>
-          <t>TD MC  23615435 BPAD</t>
-        </is>
-      </c>
-      <c r="F154" s="2" t="n">
-        <v>137.59</v>
-      </c>
-      <c r="G154" s="2" t="inlineStr"/>
+          <t xml:space="preserve">TD IDP 23615435     </t>
+        </is>
+      </c>
+      <c r="F154" s="2" t="inlineStr"/>
+      <c r="G154" s="2" t="n">
+        <v>67.76000000000001</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -4939,17 +4939,17 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>AMEX 9301989175  MSP</t>
+          <t xml:space="preserve">TD VISA23615435     </t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="n">
-        <v>395.32</v>
+        <v>654.25</v>
       </c>
     </row>
     <row r="156">
@@ -4968,7 +4968,7 @@
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="F156" s="2" t="inlineStr"/>
       <c r="G156" s="2" t="n">
-        <v>165.77</v>
+        <v>892.8099999999999</v>
       </c>
     </row>
     <row r="157">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5007,239 +5007,239 @@
       </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="n">
-        <v>237.75</v>
+        <v>1004.37</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B158" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C158" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D158" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/20</t>
-        </is>
-      </c>
-      <c r="E158" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD MC  23615013     </t>
-        </is>
-      </c>
-      <c r="F158" s="2" t="inlineStr"/>
-      <c r="G158" s="2" t="n">
-        <v>778.47</v>
-      </c>
+      <c r="A158" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2025/07/21</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>CHQ#14805-4141092198</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>103.96</v>
+      </c>
+      <c r="G158" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>2025/06/20</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
+      <c r="A159" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/22</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD IDP 23615435     </t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr"/>
+      <c r="G159" s="2" t="n">
+        <v>44.01</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2025/07/22</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD VISA23615013     </t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="n">
+        <v>505.54</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2025/07/22</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
         <is>
           <t>TD VISA23615435 BPAD</t>
         </is>
       </c>
-      <c r="F159" t="n">
-        <v>283.62</v>
-      </c>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B160" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C160" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D160" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/23</t>
-        </is>
-      </c>
-      <c r="E160" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA23615435     </t>
-        </is>
-      </c>
-      <c r="F160" s="2" t="inlineStr"/>
-      <c r="G160" s="2" t="n">
-        <v>10.08</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B161" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C161" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D161" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/23</t>
-        </is>
-      </c>
-      <c r="E161" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VDEBIT 23615013     </t>
-        </is>
-      </c>
-      <c r="F161" s="2" t="inlineStr"/>
-      <c r="G161" s="2" t="n">
-        <v>32.54</v>
-      </c>
+      <c r="F161" t="n">
+        <v>90.84</v>
+      </c>
+      <c r="G161" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B162" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C162" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D162" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/23</t>
-        </is>
-      </c>
-      <c r="E162" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD MC  23615013     </t>
-        </is>
-      </c>
-      <c r="F162" s="2" t="inlineStr"/>
-      <c r="G162" s="2" t="n">
-        <v>57.93</v>
+      <c r="A162" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2025/07/23</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="n">
+        <v>501.95</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B163" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C163" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D163" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/23</t>
-        </is>
-      </c>
-      <c r="E163" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA23615013     </t>
-        </is>
-      </c>
-      <c r="F163" s="2" t="inlineStr"/>
-      <c r="G163" s="2" t="n">
-        <v>110.38</v>
+      <c r="A163" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2025/07/23</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B164" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C164" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D164" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/23</t>
-        </is>
-      </c>
-      <c r="E164" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
-        </is>
-      </c>
-      <c r="F164" s="2" t="inlineStr"/>
-      <c r="G164" s="2" t="n">
-        <v>416.52</v>
+      <c r="A164" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2025/07/23</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GC 1672-DEPOSIT     </t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="n">
+        <v>110000</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B165" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C165" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D165" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/23</t>
-        </is>
-      </c>
-      <c r="E165" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA23615013     </t>
-        </is>
-      </c>
-      <c r="F165" s="2" t="inlineStr"/>
-      <c r="G165" s="2" t="n">
-        <v>472.62</v>
+      <c r="A165" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2025/07/23</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>AMEX 9301989175  MSP</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="n">
+        <v>317.3</v>
       </c>
     </row>
     <row r="166">
@@ -5258,17 +5258,17 @@
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
+          <t xml:space="preserve">TD MC  23615435     </t>
         </is>
       </c>
       <c r="F166" s="2" t="inlineStr"/>
       <c r="G166" s="2" t="n">
-        <v>823.23</v>
+        <v>23.72</v>
       </c>
     </row>
     <row r="167">
@@ -5287,17 +5287,17 @@
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD MC  23615435     </t>
+          <t xml:space="preserve">TD IDP 23615435     </t>
         </is>
       </c>
       <c r="F167" s="2" t="inlineStr"/>
       <c r="G167" s="2" t="n">
-        <v>1336.78</v>
+        <v>51.97</v>
       </c>
     </row>
     <row r="168">
@@ -5316,18 +5316,18 @@
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr">
         <is>
-          <t>TD VISA23615435 BPAD</t>
-        </is>
-      </c>
-      <c r="F168" s="2" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="G168" s="2" t="inlineStr"/>
+          <t xml:space="preserve">TD VISA23615013     </t>
+        </is>
+      </c>
+      <c r="F168" s="2" t="inlineStr"/>
+      <c r="G168" s="2" t="n">
+        <v>183.39</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -5345,18 +5345,18 @@
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr">
         <is>
-          <t>TD MC  23615435 BPAD</t>
-        </is>
-      </c>
-      <c r="F169" s="2" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="G169" s="2" t="inlineStr"/>
+          <t xml:space="preserve">TD MC  23615013     </t>
+        </is>
+      </c>
+      <c r="F169" s="2" t="inlineStr"/>
+      <c r="G169" s="2" t="n">
+        <v>1541.13</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -5374,16 +5374,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maintenance Charge  </t>
+          <t>CHQ#14844-0147319352</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>150</v>
+        <v>460.72</v>
       </c>
       <c r="G170" t="inlineStr"/>
     </row>
@@ -5403,18 +5403,18 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t xml:space="preserve">GC 1672-DEPOSIT     </t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="n">
-        <v>555</v>
-      </c>
+          <t>CHQ#14846-1142276103</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>150000</v>
+      </c>
+      <c r="G171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -5432,16 +5432,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t xml:space="preserve">EFT Billing         </t>
+          <t>CHQ#14837-1142405916</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>40</v>
+        <v>23.55</v>
       </c>
       <c r="G172" t="inlineStr"/>
     </row>
@@ -5461,18 +5461,18 @@
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
-        </is>
-      </c>
-      <c r="F173" s="2" t="inlineStr"/>
-      <c r="G173" s="2" t="n">
-        <v>22.58</v>
-      </c>
+          <t>TD VISA23615435 BPAD</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="G173" s="2" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -5490,46 +5490,46 @@
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD MC  23615013     </t>
+          <t>AMEX 9301989175  MSP</t>
         </is>
       </c>
       <c r="F174" s="2" t="inlineStr"/>
       <c r="G174" s="2" t="n">
-        <v>100.57</v>
+        <v>639.8099999999999</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B175" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C175" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D175" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/23</t>
-        </is>
-      </c>
-      <c r="E175" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA23615435     </t>
-        </is>
-      </c>
-      <c r="F175" s="2" t="inlineStr"/>
-      <c r="G175" s="2" t="n">
-        <v>137.1</v>
+      <c r="A175" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2025/07/24</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GC 1672-DEPOSIT     </t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="n">
+        <v>550.05</v>
       </c>
     </row>
     <row r="176">
@@ -5548,104 +5548,104 @@
       </c>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD VISA23615013     </t>
+          <t xml:space="preserve">TD MC  23615435     </t>
         </is>
       </c>
       <c r="F176" s="2" t="inlineStr"/>
       <c r="G176" s="2" t="n">
-        <v>567.8</v>
+        <v>55.47</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>2025/06/24</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="n">
-        <v>600</v>
+      <c r="A177" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/24</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VDEBIT 23615013     </t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr"/>
+      <c r="G177" s="2" t="n">
+        <v>186.45</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>2025/06/24</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="n">
-        <v>10.2</v>
+      <c r="A178" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/24</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD VISA23615435     </t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr"/>
+      <c r="G178" s="2" t="n">
+        <v>240.07</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>2025/06/24</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="n">
-        <v>33.25</v>
+      <c r="A179" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/24</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD IDP 23615435     </t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr"/>
+      <c r="G179" s="2" t="n">
+        <v>297.6</v>
       </c>
     </row>
     <row r="180">
@@ -5664,105 +5664,105 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t xml:space="preserve">GC 1416-DEPOSIT     </t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="n">
-        <v>4699.67</v>
-      </c>
+          <t>CHQ#14840-0147750338</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>32.56</v>
+      </c>
+      <c r="G180" t="inlineStr"/>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B181" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C181" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D181" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/24</t>
-        </is>
-      </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD MC  23615435     </t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr"/>
-      <c r="G181" s="2" t="n">
-        <v>39.79</v>
-      </c>
+      <c r="A181" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2025/07/24</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>CHQ#14830-0147759503</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="G181" t="inlineStr"/>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B182" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C182" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D182" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/24</t>
-        </is>
-      </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA23615435     </t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr"/>
-      <c r="G182" s="2" t="n">
-        <v>92.66</v>
-      </c>
+      <c r="A182" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2025/07/24</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>CHQ#14833-1142846214</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>86.75</v>
+      </c>
+      <c r="G182" t="inlineStr"/>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B183" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C183" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D183" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/24</t>
-        </is>
-      </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD MC  23615013     </t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr"/>
-      <c r="G183" s="2" t="n">
-        <v>146.51</v>
-      </c>
+      <c r="A183" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2025/07/24</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>CHQ#14831-3142123772</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>620.04</v>
+      </c>
+      <c r="G183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -5780,17 +5780,17 @@
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
+          <t xml:space="preserve">TD VISA23615435     </t>
         </is>
       </c>
       <c r="F184" s="2" t="inlineStr"/>
       <c r="G184" s="2" t="n">
-        <v>500.3</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="185">
@@ -5809,76 +5809,76 @@
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="E185" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">VDEBIT 23615013     </t>
+          <t xml:space="preserve">TD MC  23615435     </t>
         </is>
       </c>
       <c r="F185" s="2" t="inlineStr"/>
       <c r="G185" s="2" t="n">
-        <v>1791.92</v>
+        <v>116.53</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>2025/06/24</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>CHQ#14798-1140691026</t>
-        </is>
-      </c>
-      <c r="F186" t="n">
-        <v>440</v>
-      </c>
-      <c r="G186" t="inlineStr"/>
+      <c r="A186" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/25</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD IDP 23615435     </t>
+        </is>
+      </c>
+      <c r="F186" s="2" t="inlineStr"/>
+      <c r="G186" s="2" t="n">
+        <v>179.51</v>
+      </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>2025/06/24</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>CHQ#14801-1140817347</t>
-        </is>
-      </c>
-      <c r="F187" t="n">
-        <v>409.38</v>
-      </c>
-      <c r="G187" t="inlineStr"/>
+      <c r="A187" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B187" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/25</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VDEBIT 23615013     </t>
+        </is>
+      </c>
+      <c r="F187" s="2" t="inlineStr"/>
+      <c r="G187" s="2" t="n">
+        <v>230.01</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -5896,104 +5896,104 @@
       </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="E188" s="2" t="inlineStr">
         <is>
-          <t>TD VISA23615013 BPAD</t>
-        </is>
-      </c>
-      <c r="F188" s="2" t="n">
-        <v>198.41</v>
-      </c>
-      <c r="G188" s="2" t="inlineStr"/>
+          <t xml:space="preserve">TD MC  23615013     </t>
+        </is>
+      </c>
+      <c r="F188" s="2" t="inlineStr"/>
+      <c r="G188" s="2" t="n">
+        <v>2896.81</v>
+      </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B189" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C189" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D189" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/25</t>
-        </is>
-      </c>
-      <c r="E189" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA23615435     </t>
-        </is>
-      </c>
-      <c r="F189" s="2" t="inlineStr"/>
-      <c r="G189" s="2" t="n">
-        <v>95.54000000000001</v>
-      </c>
+      <c r="A189" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2025/07/25</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>CHQ#14806-4143037254</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>70.06</v>
+      </c>
+      <c r="G189" t="inlineStr"/>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B190" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C190" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D190" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/25</t>
-        </is>
-      </c>
-      <c r="E190" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VDEBIT 23615013     </t>
-        </is>
-      </c>
-      <c r="F190" s="2" t="inlineStr"/>
-      <c r="G190" s="2" t="n">
-        <v>253.73</v>
-      </c>
+      <c r="A190" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2025/07/25</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>CHQ#14835-1143580332</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="G190" t="inlineStr"/>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B191" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C191" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D191" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/25</t>
-        </is>
-      </c>
-      <c r="E191" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
-        </is>
-      </c>
-      <c r="F191" s="2" t="inlineStr"/>
-      <c r="G191" s="2" t="n">
-        <v>809.29</v>
+      <c r="A191" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2025/07/28</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>AMEX 9301989175  MSP</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="n">
+        <v>33.87</v>
       </c>
     </row>
     <row r="192">
@@ -6012,17 +6012,17 @@
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD VISA23615013     </t>
+          <t>AMEX 9301989175  MSP</t>
         </is>
       </c>
       <c r="F192" s="2" t="inlineStr"/>
       <c r="G192" s="2" t="n">
-        <v>1781.57</v>
+        <v>95.43000000000001</v>
       </c>
     </row>
     <row r="193">
@@ -6041,47 +6041,47 @@
       </c>
       <c r="D193" s="2" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="E193" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD MC  23615435     </t>
+          <t xml:space="preserve">TD MC  23615013     </t>
         </is>
       </c>
       <c r="F193" s="2" t="inlineStr"/>
       <c r="G193" s="2" t="n">
-        <v>1946.48</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>2025/06/25</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>CHQ#14774-0144780158</t>
-        </is>
-      </c>
-      <c r="F194" t="n">
-        <v>38.06</v>
-      </c>
-      <c r="G194" t="inlineStr"/>
+      <c r="A194" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/28</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD IDP 23615435     </t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr"/>
+      <c r="G194" s="2" t="n">
+        <v>41.27</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -6099,18 +6099,18 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>CHQ#14778-3140481899</t>
-        </is>
-      </c>
-      <c r="F195" t="n">
-        <v>16.29</v>
-      </c>
-      <c r="G195" t="inlineStr"/>
+          <t xml:space="preserve">TD VISA23615435     </t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="n">
+        <v>165.86</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr">
@@ -6138,7 +6138,7 @@
       </c>
       <c r="F196" s="2" t="inlineStr"/>
       <c r="G196" s="2" t="n">
-        <v>50.85</v>
+        <v>279.52</v>
       </c>
     </row>
     <row r="197">
@@ -6157,17 +6157,17 @@
       </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD MC  23615013     </t>
+          <t xml:space="preserve">TD IDP 23615435     </t>
         </is>
       </c>
       <c r="F197" s="2" t="inlineStr"/>
       <c r="G197" s="2" t="n">
-        <v>72.31999999999999</v>
+        <v>285.84</v>
       </c>
     </row>
     <row r="198">
@@ -6186,46 +6186,46 @@
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">VDEBIT 23615013     </t>
+          <t xml:space="preserve">TD VISA23615013     </t>
         </is>
       </c>
       <c r="F198" s="2" t="inlineStr"/>
       <c r="G198" s="2" t="n">
-        <v>189.73</v>
+        <v>305.1</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B199" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C199" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D199" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/26</t>
-        </is>
-      </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="A199" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2025/07/28</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
         <is>
           <t xml:space="preserve">TD VISA23615013     </t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr"/>
-      <c r="G199" s="2" t="n">
-        <v>1071.3</v>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="n">
+        <v>1329.65</v>
       </c>
     </row>
     <row r="200">
@@ -6244,76 +6244,76 @@
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
-        </is>
-      </c>
-      <c r="F200" s="2" t="inlineStr"/>
-      <c r="G200" s="2" t="n">
-        <v>1560.42</v>
-      </c>
+          <t>TD MC  23615435 BPAD</t>
+        </is>
+      </c>
+      <c r="F200" s="2" t="n">
+        <v>49.86</v>
+      </c>
+      <c r="G200" s="2" t="inlineStr"/>
     </row>
     <row r="201">
-      <c r="A201" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>2025/06/27</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA      A2W7K6 </t>
-        </is>
-      </c>
-      <c r="F201" t="n">
-        <v>1530.15</v>
-      </c>
-      <c r="G201" t="inlineStr"/>
+      <c r="A201" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/28</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="inlineStr">
+        <is>
+          <t>TD MC  23615435 BPAD</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="n">
+        <v>53.58</v>
+      </c>
+      <c r="G201" s="2" t="inlineStr"/>
     </row>
     <row r="202">
-      <c r="A202" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>2025/06/27</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA      A2W8Z2 </t>
-        </is>
-      </c>
-      <c r="F202" t="n">
-        <v>494.02</v>
-      </c>
-      <c r="G202" t="inlineStr"/>
+      <c r="A202" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/28</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="inlineStr">
+        <is>
+          <t>AMEX 9301989175  MSP</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="inlineStr"/>
+      <c r="G202" s="2" t="n">
+        <v>323.2</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -6331,105 +6331,105 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>FD33227080017    MSP</t>
+          <t xml:space="preserve">BELL1 BILL14 X5L8X4 </t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>5</v>
+        <v>145.42</v>
       </c>
       <c r="G203" t="inlineStr"/>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/27</t>
-        </is>
-      </c>
-      <c r="E204" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD MC  23615435     </t>
-        </is>
-      </c>
-      <c r="F204" s="2" t="inlineStr"/>
-      <c r="G204" s="2" t="n">
-        <v>66.5</v>
-      </c>
+      <c r="A204" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2025/07/28</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD VISA      X5L8Y2 </t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>491.4</v>
+      </c>
+      <c r="G204" t="inlineStr"/>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C205" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D205" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/27</t>
-        </is>
-      </c>
-      <c r="E205" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA23615435     </t>
-        </is>
-      </c>
-      <c r="F205" s="2" t="inlineStr"/>
-      <c r="G205" s="2" t="n">
-        <v>84.86</v>
-      </c>
+      <c r="A205" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2025/07/28</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD VISA      X5L8Y6 </t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>792.01</v>
+      </c>
+      <c r="G205" t="inlineStr"/>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C206" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D206" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/27</t>
-        </is>
-      </c>
-      <c r="E206" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VDEBIT 23615013     </t>
-        </is>
-      </c>
-      <c r="F206" s="2" t="inlineStr"/>
-      <c r="G206" s="2" t="n">
-        <v>257.3</v>
-      </c>
+      <c r="A206" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2025/07/28</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENBRIDGE GAS X5L8Z7 </t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="G206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -6447,17 +6447,17 @@
       </c>
       <c r="D207" s="2" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="E207" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD VISA23615013     </t>
+          <t xml:space="preserve">TD MC  23615435     </t>
         </is>
       </c>
       <c r="F207" s="2" t="inlineStr"/>
       <c r="G207" s="2" t="n">
-        <v>257.64</v>
+        <v>14.59</v>
       </c>
     </row>
     <row r="208">
@@ -6476,17 +6476,17 @@
       </c>
       <c r="D208" s="2" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="E208" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
+          <t xml:space="preserve">TD MC  23615013     </t>
         </is>
       </c>
       <c r="F208" s="2" t="inlineStr"/>
       <c r="G208" s="2" t="n">
-        <v>608.27</v>
+        <v>23.72</v>
       </c>
     </row>
     <row r="209">
@@ -6505,46 +6505,46 @@
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">VDEBIT 23615013     </t>
+          <t xml:space="preserve">TD IDP 23615435     </t>
         </is>
       </c>
       <c r="F209" s="2" t="inlineStr"/>
       <c r="G209" s="2" t="n">
-        <v>26.7</v>
+        <v>53.05</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B210" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C210" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D210" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/30</t>
-        </is>
-      </c>
-      <c r="E210" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD MC  23615013     </t>
-        </is>
-      </c>
-      <c r="F210" s="2" t="inlineStr"/>
-      <c r="G210" s="2" t="n">
-        <v>59.78</v>
+      <c r="A210" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2025/07/28</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD VISA23615435     </t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="n">
+        <v>119.04</v>
       </c>
     </row>
     <row r="211">
@@ -6563,134 +6563,134 @@
       </c>
       <c r="D211" s="2" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="E211" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
+          <t xml:space="preserve">VDEBIT 23615013     </t>
         </is>
       </c>
       <c r="F211" s="2" t="inlineStr"/>
       <c r="G211" s="2" t="n">
-        <v>66.86</v>
+        <v>189.27</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B212" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C212" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D212" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/30</t>
-        </is>
-      </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD MC  23615435     </t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr"/>
-      <c r="G212" s="2" t="n">
-        <v>176.73</v>
+      <c r="A212" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2025/07/28</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD VISA23615013     </t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="n">
+        <v>267.65</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B213" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C213" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D213" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/30</t>
-        </is>
-      </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VDEBIT 23615013     </t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr"/>
-      <c r="G213" s="2" t="n">
-        <v>385.71</v>
-      </c>
+      <c r="A213" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2025/07/28</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>CHQ#14836-1144493331</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>352.85</v>
+      </c>
+      <c r="G213" t="inlineStr"/>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B214" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C214" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D214" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/30</t>
-        </is>
-      </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD MC  23615013     </t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr"/>
-      <c r="G214" s="2" t="n">
-        <v>428.89</v>
-      </c>
+      <c r="A214" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2025/07/28</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>CHQ#14827-0149060753</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="G214" t="inlineStr"/>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B215" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C215" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D215" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/30</t>
-        </is>
-      </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA23615435     </t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr"/>
-      <c r="G215" s="2" t="n">
-        <v>458.29</v>
-      </c>
+      <c r="A215" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2025/07/28</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>CHQ#14843-3143595305</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="G215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -6708,46 +6708,46 @@
       </c>
       <c r="D216" s="2" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="E216" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD VISA23615435     </t>
+          <t>AMEX 9301989175  MSP</t>
         </is>
       </c>
       <c r="F216" s="2" t="inlineStr"/>
       <c r="G216" s="2" t="n">
-        <v>469.37</v>
+        <v>2316.9</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B217" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C217" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D217" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/30</t>
-        </is>
-      </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA23615013     </t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr"/>
-      <c r="G217" s="2" t="n">
-        <v>776.33</v>
+      <c r="A217" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2025/07/29</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD VISA23615435     </t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="n">
+        <v>70.79000000000001</v>
       </c>
     </row>
     <row r="218">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="D218" s="2" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="E218" s="2" t="inlineStr">
@@ -6776,36 +6776,36 @@
       </c>
       <c r="F218" s="2" t="inlineStr"/>
       <c r="G218" s="2" t="n">
-        <v>967.85</v>
+        <v>283.12</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B219" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C219" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D219" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/30</t>
-        </is>
-      </c>
-      <c r="E219" s="2" t="inlineStr">
+      <c r="A219" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2025/07/29</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
         <is>
           <t xml:space="preserve">TD VISA23615013     </t>
         </is>
       </c>
-      <c r="F219" s="2" t="inlineStr"/>
-      <c r="G219" s="2" t="n">
-        <v>1463.41</v>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="n">
+        <v>422.9</v>
       </c>
     </row>
     <row r="220">
@@ -6824,46 +6824,46 @@
       </c>
       <c r="D220" s="2" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="E220" s="2" t="inlineStr">
         <is>
-          <t>TD MC  23615435 BPAD</t>
-        </is>
-      </c>
-      <c r="F220" s="2" t="n">
-        <v>21.08</v>
-      </c>
-      <c r="G220" s="2" t="inlineStr"/>
+          <t xml:space="preserve">TD MC  23615013     </t>
+        </is>
+      </c>
+      <c r="F220" s="2" t="inlineStr"/>
+      <c r="G220" s="2" t="n">
+        <v>982.1900000000001</v>
+      </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>2025/06/30</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GC 1672-DEPOSIT     </t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="n">
-        <v>400000</v>
+      <c r="A221" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/29</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VDEBIT 23615013     </t>
+        </is>
+      </c>
+      <c r="F221" s="2" t="inlineStr"/>
+      <c r="G221" s="2" t="n">
+        <v>1049.53</v>
       </c>
     </row>
     <row r="222">
@@ -6882,104 +6882,104 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>PRFD-TPLDI11041-0187</t>
+          <t>CHQ#14849-1144654824</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>5308.75</v>
+        <v>10735</v>
       </c>
       <c r="G222" t="inlineStr"/>
     </row>
     <row r="223">
-      <c r="A223" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>2025/06/30</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD VISA      A8K2Y7 </t>
-        </is>
-      </c>
-      <c r="F223" t="n">
-        <v>446.94</v>
-      </c>
-      <c r="G223" t="inlineStr"/>
+      <c r="A223" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/30</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="inlineStr">
+        <is>
+          <t>AMEX 9301989175  MSP</t>
+        </is>
+      </c>
+      <c r="F223" s="2" t="inlineStr"/>
+      <c r="G223" s="2" t="n">
+        <v>828.28</v>
+      </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B224" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C224" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D224" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/30</t>
-        </is>
-      </c>
-      <c r="E224" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TD MC  23615013     </t>
-        </is>
-      </c>
-      <c r="F224" s="2" t="inlineStr"/>
-      <c r="G224" s="2" t="n">
-        <v>47.44</v>
-      </c>
+      <c r="A224" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2025/07/30</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>FD33227080017    MSP</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>5</v>
+      </c>
+      <c r="G224" t="inlineStr"/>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B225" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C225" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D225" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/30</t>
-        </is>
-      </c>
-      <c r="E225" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VDEBIT 23615013     </t>
-        </is>
-      </c>
-      <c r="F225" s="2" t="inlineStr"/>
-      <c r="G225" s="2" t="n">
-        <v>362.72</v>
+      <c r="A225" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2025/07/30</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD VISA23615013     </t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="n">
+        <v>62.15</v>
       </c>
     </row>
     <row r="226">
@@ -6998,17 +6998,17 @@
       </c>
       <c r="D226" s="2" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="E226" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD IDP 23615435     </t>
+          <t xml:space="preserve">VDEBIT 23615013     </t>
         </is>
       </c>
       <c r="F226" s="2" t="inlineStr"/>
       <c r="G226" s="2" t="n">
-        <v>1337.8</v>
+        <v>1035.7</v>
       </c>
     </row>
     <row r="227">
@@ -7027,17 +7027,17 @@
       </c>
       <c r="D227" s="2" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="E227" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD MC  23615435     </t>
+          <t xml:space="preserve">TD IDP 23615435     </t>
         </is>
       </c>
       <c r="F227" s="2" t="inlineStr"/>
       <c r="G227" s="2" t="n">
-        <v>2499.05</v>
+        <v>1545.02</v>
       </c>
     </row>
     <row r="228">
@@ -7056,46 +7056,46 @@
       </c>
       <c r="D228" s="2" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="E228" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TD VISA23615013     </t>
+          <t xml:space="preserve">TD MC  23615013     </t>
         </is>
       </c>
       <c r="F228" s="2" t="inlineStr"/>
       <c r="G228" s="2" t="n">
-        <v>3504.2</v>
+        <v>2183.78</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="n">
-        <v>11045208359</v>
-      </c>
-      <c r="B229" s="2" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C229" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D229" s="2" t="inlineStr">
-        <is>
-          <t>2025/06/30</t>
-        </is>
-      </c>
-      <c r="E229" s="2" t="inlineStr">
+      <c r="A229" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2025/07/30</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
         <is>
           <t xml:space="preserve">TD VISA23615435     </t>
         </is>
       </c>
-      <c r="F229" s="2" t="inlineStr"/>
-      <c r="G229" s="2" t="n">
-        <v>7261.95</v>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="n">
+        <v>2506.33</v>
       </c>
     </row>
     <row r="230">
@@ -7114,16 +7114,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>CHQ#14820-2142209974</t>
+          <t>CHQ#14845-0141077885</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>400000</v>
+        <v>186.85</v>
       </c>
       <c r="G230" t="inlineStr"/>
     </row>
@@ -7143,16 +7143,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>CHQ#14802-2142209998</t>
+          <t>CHQ#14834-1145210532</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>120000</v>
+        <v>241.67</v>
       </c>
       <c r="G231" t="inlineStr"/>
     </row>
@@ -7172,16 +7172,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>CHQ#14821-2142210004</t>
+          <t>CHQ#14847-4144806681</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>57357.94</v>
+        <v>767.84</v>
       </c>
       <c r="G232" t="inlineStr"/>
     </row>
@@ -7201,18 +7201,279 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>CHQ#14819-2142210016</t>
-        </is>
-      </c>
-      <c r="F233" t="n">
-        <v>39179.86</v>
-      </c>
-      <c r="G233" t="inlineStr"/>
+          <t>AMEX 9301989175  MSP</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/31</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VDEBIT 23615013     </t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr"/>
+      <c r="G234" s="2" t="n">
+        <v>748.6900000000001</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2025/07/31</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD VISA23615435     </t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="n">
+        <v>833.67</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="inlineStr">
+        <is>
+          <t>2025/07/31</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD IDP 23615435     </t>
+        </is>
+      </c>
+      <c r="F236" s="2" t="inlineStr"/>
+      <c r="G236" s="2" t="n">
+        <v>2921.39</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2025/07/31</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TD VISA23615013     </t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="n">
+        <v>3301.17</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2025/07/31</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>CHQ#14832-0141320363</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="G238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2025/07/31</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>CHQ#14850-0141458900</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>110000</v>
+      </c>
+      <c r="G239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2025/07/31</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>CHQ#14848-0141458942</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>61741.86</v>
+      </c>
+      <c r="G240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2025/07/31</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>CHQ#14842-1140227895</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>143.14</v>
+      </c>
+      <c r="G241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>11045208359</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2025/07/31</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>TD MC  23615013 BPAD</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>375.24</v>
+      </c>
+      <c r="G242" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
